--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43029,6 +43029,41 @@
         <v>296500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>888200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43064,6 +43064,41 @@
         <v>888200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>972800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43099,6 +43099,41 @@
         <v>972800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>44500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43134,6 +43134,41 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>65700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43169,6 +43169,41 @@
         <v>65700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>62800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43204,6 +43204,41 @@
         <v>62800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>45700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43239,6 +43239,41 @@
         <v>45700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>22500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43274,6 +43274,41 @@
         <v>22500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>53700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43309,6 +43309,41 @@
         <v>53700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>11100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43344,6 +43344,41 @@
         <v>11100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>424500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43379,6 +43379,41 @@
         <v>424500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43414,6 +43414,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>559000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43449,6 +43449,76 @@
         <v>559000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>160900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>216000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43519,6 +43519,76 @@
         <v>216000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>111200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>79500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43589,6 +43589,41 @@
         <v>79500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43624,6 +43624,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>883600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43659,6 +43659,41 @@
         <v>883600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>96100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43694,6 +43694,41 @@
         <v>96100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>611000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43729,6 +43729,76 @@
         <v>611000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>603000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43799,6 +43799,41 @@
         <v>603000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>223200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43834,6 +43834,41 @@
         <v>223200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2274700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2685"/>
+  <dimension ref="A1:I2686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94409,6 +94409,41 @@
         <v>2274700</v>
       </c>
     </row>
+    <row r="2686">
+      <c r="A2686" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2686" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F2686" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G2686" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2686" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2686" t="n">
+        <v>930100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2686"/>
+  <dimension ref="A1:I2687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94444,6 +94444,41 @@
         <v>930100</v>
       </c>
     </row>
+    <row r="2687">
+      <c r="A2687" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2687" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2687" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2687" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2687" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2687" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2687" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2687" t="n">
+        <v>715500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2687"/>
+  <dimension ref="A1:I2688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94479,6 +94479,41 @@
         <v>715500</v>
       </c>
     </row>
+    <row r="2688">
+      <c r="A2688" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2688" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2688" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2688" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H2688" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2688" t="n">
+        <v>838400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2688"/>
+  <dimension ref="A1:I2689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94514,6 +94514,41 @@
         <v>838400</v>
       </c>
     </row>
+    <row r="2689">
+      <c r="A2689" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2689" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2689" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G2689" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2689" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I2689" t="n">
+        <v>1458000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2689"/>
+  <dimension ref="A1:I2690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94549,6 +94549,41 @@
         <v>1458000</v>
       </c>
     </row>
+    <row r="2690">
+      <c r="A2690" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2690" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2690" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2690" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2690" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2690" t="n">
+        <v>3883100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2690"/>
+  <dimension ref="A1:I2691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94584,6 +94584,41 @@
         <v>3883100</v>
       </c>
     </row>
+    <row r="2691">
+      <c r="A2691" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2691" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2691" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2691" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H2691" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I2691" t="n">
+        <v>1519500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2691"/>
+  <dimension ref="A1:I2692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94619,6 +94619,41 @@
         <v>1519500</v>
       </c>
     </row>
+    <row r="2692">
+      <c r="A2692" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2692" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2692" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2692" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2692" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2692" t="n">
+        <v>1548200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2692"/>
+  <dimension ref="A1:I2693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94654,6 +94654,41 @@
         <v>1548200</v>
       </c>
     </row>
+    <row r="2693">
+      <c r="A2693" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2693" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2693" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G2693" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2693" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I2693" t="n">
+        <v>2120600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2693"/>
+  <dimension ref="A1:I2694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94689,6 +94689,41 @@
         <v>2120600</v>
       </c>
     </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2694" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2694" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H2694" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I2694" t="n">
+        <v>4562000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2694"/>
+  <dimension ref="A1:I2695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94724,6 +94724,41 @@
         <v>4562000</v>
       </c>
     </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2695" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2695" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2695" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2695" t="n">
+        <v>4042400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2695"/>
+  <dimension ref="A1:I2696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94759,6 +94759,41 @@
         <v>4042400</v>
       </c>
     </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F2696" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2696" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2696" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2696" t="n">
+        <v>4138500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2696"/>
+  <dimension ref="A1:I2697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94794,6 +94794,41 @@
         <v>4138500</v>
       </c>
     </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2697" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H2697" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2697" t="n">
+        <v>5555900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2697"/>
+  <dimension ref="A1:I2698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94829,6 +94829,41 @@
         <v>5555900</v>
       </c>
     </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2698" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2698" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2698" t="n">
+        <v>8626900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2698"/>
+  <dimension ref="A1:I2699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94864,6 +94864,41 @@
         <v>8626900</v>
       </c>
     </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2699" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I2699" t="n">
+        <v>6096900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9059.xlsx
+++ b/data/9059.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2699"/>
+  <dimension ref="A1:I2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94899,6 +94899,41 @@
         <v>6096900</v>
       </c>
     </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>TSH</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H2700" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I2700" t="n">
+        <v>4350300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
